--- a/biology/Médecine/Centre_hospitalier_de_Wallonie_picarde/Centre_hospitalier_de_Wallonie_picarde.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_Wallonie_picarde/Centre_hospitalier_de_Wallonie_picarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Composé de trois sites hospitaliers et de deux polycliniques, le Centre hospitalier de Wallonie picarde (CHwapi) est l’une des plus importantes Institutions hospitalières de Wallonie avec plus de 2 700 collaborateurs dont près de 300 médecins, et 24 500 admissions par an.
 Le CHwapi fait partie du Réseau Santé Louvain de l'université catholique de Louvain (UCLouvain).
@@ -512,9 +524,11 @@
           <t>Le CHwapi en quelques chiffres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trois sites (IMC, Notre-Dame &amp; Union) et deux polycliniques (Centre de consultations de Péruwelz et Centre de consultations de Frasnes[1]); Plus de 2700 membres du personnel et collaborateurs, dont près de 300 médecins ; 795 lits agréés, 24500 admissions en hospitalisation classique par an ; quelque 297000 consultations par an ; 2 IRM. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois sites (IMC, Notre-Dame &amp; Union) et deux polycliniques (Centre de consultations de Péruwelz et Centre de consultations de Frasnes); Plus de 2700 membres du personnel et collaborateurs, dont près de 300 médecins ; 795 lits agréés, 24500 admissions en hospitalisation classique par an ; quelque 297000 consultations par an ; 2 IRM. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Les travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 2009, des travaux de rénovation et d'agrandissement sont opérés sur le site Union. La phase principale de ce chantier s'achève en 2015. Les 42 649 m2 de nouveaux bâtiments et les 6 551 m2 de surfaces rénovées seront alors fonctionnels. Ils accueilleront le Pôle Mère-Enfant, un important Pôle Médico-technique et quelques unités de soins. 
 Parallèlement, l'activité des sites IMC et Notre-Dame se poursuivra. 
@@ -576,7 +592,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2006 : les trois hôpitaux ont progressivement mis en association une série de services via une association appelée U.M.T (Union médico-hospitalière du Tournaisis)
 Mai 2007 : la première pierre du nouvel hôpital est posée
@@ -611,7 +629,9 @@
           <t>Les travaux en chiffres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">- 42 649 m2, c’est la superficie de l’extension du site Union en phase principale 
 - 16 900 m2  de bâtiments existants seront rénovés sur le site Union
